--- a/Data/Data collected/Questionnaires_lables_old/2ICAR_2025.xlsx
+++ b/Data/Data collected/Questionnaires_lables_old/2ICAR_2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tulum/Dropbox/תואר פסיכולוגיה/תואר שני/תואר שני קלינית מחקרית/שיעורים - קלינית/מעבדה/תזה/Data/Data Collected/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tulum/Dropbox/Github/Creativity-in-ADHD/Data/Data collected/Questionnaires_lables_old/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92B551CF-EDBD-F34B-A0EA-A28A7B00A0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6444E1F6-0252-DE4A-B91C-0161D65B2DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="331">
   <si>
     <t>StartDate</t>
   </si>
@@ -1024,6 +1024,9 @@
   </si>
   <si>
     <t>raK5i3</t>
+  </si>
+  <si>
+    <t>vQtQiu</t>
   </si>
 </sst>
 </file>
@@ -1407,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A92"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7829,8 +7832,8 @@
       <c r="AH60">
         <v>1</v>
       </c>
-      <c r="AI60" s="2" t="s">
-        <v>74</v>
+      <c r="AI60" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:35" ht="48" x14ac:dyDescent="0.2">
@@ -9862,8 +9865,8 @@
       <c r="AH79">
         <v>4</v>
       </c>
-      <c r="AI79" s="2" t="s">
-        <v>74</v>
+      <c r="AI79" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="80" spans="1:35" ht="48" x14ac:dyDescent="0.2">
@@ -11261,7 +11264,7 @@
   <autoFilter ref="A2:AI93" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C92 D1:D92 G1:G92 I1:I92 J1:J92 K1:K92 L1:L92 M1:M92 P1:P92 Q1:Q92 R1:R92 S1:S92 T1:T92 U1:U92 V1:V92 W1:W92 X1:X92 Y1:Y92 Z1:Z92 AA1:AA92 AB1:AB92 AC1:AC92 AD1:AD92 AE1:AE92 AF1:AF92 AG1:AG92 AI1:AI92" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C92 D1:D92 G1:G92 I1:I92 J1:J92 K1:K92 L1:L92 M1:M92 P1:P92 Q1:Q92 R1:R92 S1:S92 T1:T92 U1:U92 V1:V92 W1:W92 X1:X92 Y1:Y92 Z1:Z92 AA1:AA92 AB1:AB92 AC1:AC92 AD1:AD92 AE1:AE92 AF1:AF92 AG1:AG92 AI1:AI59 AI61:AI78 AI80:AI92" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>